--- a/Stocks/INOXWIND.xlsx
+++ b/Stocks/INOXWIND.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>200.9</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>135.61594086104327</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>134.09176809853713</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>40.645137679455722</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>1.4500000000000171</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>3.4000000000000057</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.42647058823529843</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>141.17199679613535</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-3.6933721261885637</v>
       </c>
       <c r="Y67">
         <v>-3.2477757602250512</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>125</v>
+      </c>
+      <c r="D83">
+        <v>134.44999999999999</v>
+      </c>
+      <c r="E83">
+        <v>123</v>
+      </c>
+      <c r="F83">
+        <v>130.4</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>129.28333333333333</v>
+      </c>
+      <c r="H83">
+        <v>126.29438984081311</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>127.93931747457633</v>
+      </c>
+      <c r="K83">
+        <v>119.20367800776312</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>64.76291464062237</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>7.4000000000000057</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>11.449999999999989</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.64628820960698807</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>124.08597060166311</v>
+      </c>
+      <c r="W83">
+        <v>128.47290190611065</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-4.3869313044475433</v>
+      </c>
+      <c r="Y83">
+        <v>-5.7022403652423694</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>130</v>
+      </c>
+      <c r="D84">
+        <v>133.75</v>
+      </c>
+      <c r="E84">
+        <v>128.5</v>
+      </c>
+      <c r="F84">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>131.65</v>
+      </c>
+      <c r="H84">
+        <v>128.97219492040657</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>129.23058025800381</v>
+      </c>
+      <c r="K84">
+        <v>121.26952733937131</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>68.025593642458617</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.1999999999999886</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>5.25</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.79999999999999782</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>125.41120589371494</v>
+      </c>
+      <c r="W84">
+        <v>128.78602028343579</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-3.3748143897208536</v>
+      </c>
+      <c r="Y84">
+        <v>-5.2367551701380659</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>137.6</v>
+      </c>
+      <c r="E85">
+        <v>131</v>
+      </c>
+      <c r="F85">
+        <v>133.05000000000001</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>133.88333333333335</v>
+      </c>
+      <c r="H85">
+        <v>131.42776412686996</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>131.09045131178075</v>
+      </c>
+      <c r="K85">
+        <v>123.43185459728879</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>68.579000562793496</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.0500000000000114</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.31060606060606261</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>126.58640498698956</v>
+      </c>
+      <c r="W85">
+        <v>129.10187063281091</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-2.5154656458213509</v>
+      </c>
+      <c r="Y85">
+        <v>-4.6924972652747226</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>134.6</v>
+      </c>
+      <c r="D86">
+        <v>136.6</v>
+      </c>
+      <c r="E86">
+        <v>128.65</v>
+      </c>
+      <c r="F86">
+        <v>129.85</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>131.70000000000002</v>
+      </c>
+      <c r="H86">
+        <v>131.56388206343499</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>132.31479546471837</v>
+      </c>
+      <c r="K86">
+        <v>124.59144246455794</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>57.253964208782584</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>7.9499999999999886</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.15094339622641387</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>127.0884965274527</v>
+      </c>
+      <c r="W86">
+        <v>129.15728762297306</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-2.0687910955203535</v>
+      </c>
+      <c r="Y86">
+        <v>-4.1677560313238491</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>134</v>
+      </c>
+      <c r="D87">
+        <v>135</v>
+      </c>
+      <c r="E87">
+        <v>128.9</v>
+      </c>
+      <c r="F87">
+        <v>130</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>131.29999999999998</v>
+      </c>
+      <c r="H87">
+        <v>131.43194103171749</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>132.91150758366985</v>
+      </c>
+      <c r="K87">
+        <v>125.54889969465619</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>57.663614739193925</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.18032786885245825</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>127.53642013861382</v>
+      </c>
+      <c r="W87">
+        <v>129.21971076201208</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1.6832906233982641</v>
+      </c>
+      <c r="Y87">
+        <v>-3.6708629497387322</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>130.5</v>
+      </c>
+      <c r="D88">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="E88">
+        <v>126</v>
+      </c>
+      <c r="F88">
+        <v>128</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>128.56666666666666</v>
+      </c>
+      <c r="H88">
+        <v>129.99930384919207</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>132.64228367618765</v>
+      </c>
+      <c r="K88">
+        <v>125.64914420695482</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>49.721902232727935</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.35087719298245684</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>127.60774011728861</v>
+      </c>
+      <c r="W88">
+        <v>129.12936181667786</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-1.5216216993892431</v>
+      </c>
+      <c r="Y88">
+        <v>-3.2410146996688343</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>128</v>
+      </c>
+      <c r="D89">
+        <v>131.9</v>
+      </c>
+      <c r="E89">
+        <v>127.65</v>
+      </c>
+      <c r="F89">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>129.45000000000002</v>
+      </c>
+      <c r="H89">
+        <v>129.72465192459606</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>132.47733174814596</v>
+      </c>
+      <c r="K89">
+        <v>126.09377882763152</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>52.96111392230933</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>4.25</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.27058823529411896</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>127.79116471462883</v>
+      </c>
+      <c r="W89">
+        <v>129.1049646450721</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-1.3137999304432668</v>
+      </c>
+      <c r="Y89">
+        <v>-2.8555717458237209</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>127.5</v>
+      </c>
+      <c r="D90">
+        <v>129.9</v>
+      </c>
+      <c r="E90">
+        <v>126.2</v>
+      </c>
+      <c r="F90">
+        <v>126.45</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>127.51666666666667</v>
+      </c>
+      <c r="H90">
+        <v>128.62065929563136</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>131.90459135966907</v>
+      </c>
+      <c r="K90">
+        <v>126.1173835326023</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>42.829259390588952</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>3.7000000000000028</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>6.7567567567567516E-2</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>127.58483168160902</v>
+      </c>
+      <c r="W90">
+        <v>128.90830059728899</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-1.3234689156799675</v>
+      </c>
+      <c r="Y90">
+        <v>-2.5491511797949702</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>129.5</v>
+      </c>
+      <c r="D91">
+        <v>131.35</v>
+      </c>
+      <c r="E91">
+        <v>126.55</v>
+      </c>
+      <c r="F91">
+        <v>127</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>128.29999999999998</v>
+      </c>
+      <c r="H91">
+        <v>128.46032964781568</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>131.78134883529816</v>
+      </c>
+      <c r="K91">
+        <v>126.21352052535735</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>45.85937989824864</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>9.3750000000000652E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>127.49485757674609</v>
+      </c>
+      <c r="W91">
+        <v>128.76694499748979</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-1.2720874207437021</v>
+      </c>
+      <c r="Y91">
+        <v>-2.2937384279847164</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>127.2</v>
+      </c>
+      <c r="D92">
+        <v>128.65</v>
+      </c>
+      <c r="E92">
+        <v>123.45</v>
+      </c>
+      <c r="F92">
+        <v>126.85</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>126.31666666666668</v>
+      </c>
+      <c r="H92">
+        <v>127.38849815724117</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>131.08549353856523</v>
+      </c>
+      <c r="K92">
+        <v>125.59940485305572</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>45.045470998535713</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999915</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.65384615384615186</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>127.39564871878515</v>
+      </c>
+      <c r="W92">
+        <v>128.6249490717498</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-1.2293003529646427</v>
+      </c>
+      <c r="Y92">
+        <v>-2.0808508129807017</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>130</v>
+      </c>
+      <c r="D93">
+        <v>130</v>
+      </c>
+      <c r="E93">
+        <v>125.4</v>
+      </c>
+      <c r="F93">
+        <v>127.7</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>127.7</v>
+      </c>
+      <c r="H93">
+        <v>127.5442490786206</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>130.84427275221739</v>
+      </c>
+      <c r="K93">
+        <v>125.55509266348778</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>51.182533369772131</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>127.44247199281821</v>
+      </c>
+      <c r="W93">
+        <v>128.55643432569425</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-1.1139623328760422</v>
+      </c>
+      <c r="Y93">
+        <v>-1.8874731169597698</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>128.5</v>
+      </c>
+      <c r="D94">
+        <v>131.35</v>
+      </c>
+      <c r="E94">
+        <v>127.4</v>
+      </c>
+      <c r="F94">
+        <v>130</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>129.58333333333334</v>
+      </c>
+      <c r="H94">
+        <v>128.56379120597697</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>130.95665658505797</v>
+      </c>
+      <c r="K94">
+        <v>125.96507207160161</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>64.566615820375361</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999943</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.65822784810126633</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>127.83593784007695</v>
+      </c>
+      <c r="W94">
+        <v>128.66336511638357</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-0.82742727630662216</v>
+      </c>
+      <c r="Y94">
+        <v>-1.6754639488291403</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>129.9</v>
+      </c>
+      <c r="D95">
+        <v>129.9</v>
+      </c>
+      <c r="E95">
+        <v>127.75</v>
+      </c>
+      <c r="F95">
+        <v>128.6</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>128.75</v>
+      </c>
+      <c r="H95">
+        <v>128.65689560298847</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>130.72184401060065</v>
+      </c>
+      <c r="K95">
+        <v>126.3617227223568</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>53.42245395634373</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.39534883720929864</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>127.9534858646805</v>
+      </c>
+      <c r="W95">
+        <v>128.65867140405885</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-0.70518553937834838</v>
+      </c>
+      <c r="Y95">
+        <v>-1.4814082669389819</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>128.6</v>
+      </c>
+      <c r="D96">
+        <v>130</v>
+      </c>
+      <c r="E96">
+        <v>126.05</v>
+      </c>
+      <c r="F96">
+        <v>127.5</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>127.85000000000001</v>
+      </c>
+      <c r="H96">
+        <v>128.25344780149425</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>130.56143423046717</v>
+      </c>
+      <c r="K96">
+        <v>126.29245100627752</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>45.679062241509236</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1.4500000000000028</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>3.9500000000000028</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.36708860759493717</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>127.88371880857581</v>
+      </c>
+      <c r="W96">
+        <v>128.57284389264709</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-0.68912508407127859</v>
+      </c>
+      <c r="Y96">
+        <v>-1.3229516303654412</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>127.5</v>
+      </c>
+      <c r="D97">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="E97">
+        <v>116.05</v>
+      </c>
+      <c r="F97">
+        <v>119</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>121.11666666666667</v>
+      </c>
+      <c r="H97">
+        <v>124.68505723408046</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>130.05889329036336</v>
+      </c>
+      <c r="K97">
+        <v>124.0163507826603</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>19.032543438591333</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>2.9500000000000028</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>12.250000000000014</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.24081632653061219</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>126.51699283802569</v>
+      </c>
+      <c r="W97">
+        <v>127.8637443450436</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-1.3467515070179132</v>
+      </c>
+      <c r="Y97">
+        <v>-1.3277116056959355</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>121.7</v>
+      </c>
+      <c r="D98">
+        <v>123.7</v>
+      </c>
+      <c r="E98">
+        <v>116.6</v>
+      </c>
+      <c r="F98">
+        <v>119.9</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>120.06666666666668</v>
+      </c>
+      <c r="H98">
+        <v>122.37586195037358</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>128.64580589250482</v>
+      </c>
+      <c r="K98">
+        <v>122.36827283095801</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>24.835752425438081</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7.1000000000000085</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.46478873239436724</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>125.49899393986789</v>
+      </c>
+      <c r="W98">
+        <v>127.27383735652185</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-1.7748434166539653</v>
+      </c>
+      <c r="Y98">
+        <v>-1.4171379678875415</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>120</v>
+      </c>
+      <c r="D99">
+        <v>122.4</v>
+      </c>
+      <c r="E99">
+        <v>118</v>
+      </c>
+      <c r="F99">
+        <v>120</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>120.13333333333333</v>
+      </c>
+      <c r="H99">
+        <v>121.25459764185345</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>127.25784902750375</v>
+      </c>
+      <c r="K99">
+        <v>121.39754553518956</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>25.576609899071666</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.45454545454545398</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>124.6529948721959</v>
+      </c>
+      <c r="W99">
+        <v>126.73503458937209</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-2.0820397171761869</v>
+      </c>
+      <c r="Y99">
+        <v>-1.5501183177452706</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>120</v>
+      </c>
+      <c r="D100">
+        <v>121.15</v>
+      </c>
+      <c r="E100">
+        <v>119</v>
+      </c>
+      <c r="F100">
+        <v>119.45</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>119.86666666666667</v>
+      </c>
+      <c r="H100">
+        <v>120.56063215426006</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>125.90054924361404</v>
+      </c>
+      <c r="K100">
+        <v>120.86475763848077</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>23.953440118084227</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.20930232558139611</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>123.8525341226273</v>
+      </c>
+      <c r="W100">
+        <v>126.19540239756675</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-2.3428682749394483</v>
+      </c>
+      <c r="Y100">
+        <v>-1.7086683091841062</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>120</v>
+      </c>
+      <c r="D101">
+        <v>123.25</v>
+      </c>
+      <c r="E101">
+        <v>117.65</v>
+      </c>
+      <c r="F101">
+        <v>118.95</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>119.95</v>
+      </c>
+      <c r="H101">
+        <v>120.25531607713003</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>125.31153830058869</v>
+      </c>
+      <c r="K101">
+        <v>120.15036705215171</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>22.342186277943117</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>5.5999999999999943</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.23214285714285687</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>123.09829810376156</v>
+      </c>
+      <c r="W101">
+        <v>125.65870592367293</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-2.5604078199113616</v>
+      </c>
+      <c r="Y101">
+        <v>-1.8790162113295572</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>118.2</v>
+      </c>
+      <c r="D102">
+        <v>120.1</v>
+      </c>
+      <c r="E102">
+        <v>116</v>
+      </c>
+      <c r="F102">
+        <v>116.3</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>117.46666666666665</v>
+      </c>
+      <c r="H102">
+        <v>118.86099137189834</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>124.15341867823565</v>
+      </c>
+      <c r="K102">
+        <v>119.22806326278466</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>15.454899804553662</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>7.3170731707316486E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>122.05240608779825</v>
+      </c>
+      <c r="W102">
+        <v>124.9654684478453</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-2.91306236004705</v>
+      </c>
+      <c r="Y102">
+        <v>-2.0858254410730557</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>119.65</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>118.55000000000001</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>118.05000000000001</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>117.55000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>116.6</v>
+      </c>
+      <c r="D103">
+        <v>117.25</v>
+      </c>
+      <c r="E103">
+        <v>110.7</v>
+      </c>
+      <c r="F103">
+        <v>112.8</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>113.58333333333333</v>
+      </c>
+      <c r="H103">
+        <v>116.22216235261584</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>122.61932563862773</v>
+      </c>
+      <c r="K103">
+        <v>117.33293809327695</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>10.242317725919865</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>6.5499999999999972</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.32061068702290002</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>120.62895899736775</v>
+      </c>
+      <c r="W103">
+        <v>124.06432263689379</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-3.4353636395260452</v>
+      </c>
+      <c r="Y103">
+        <v>-2.3557330807636534</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>112.8</v>
+      </c>
+      <c r="D104">
+        <v>115.45</v>
+      </c>
+      <c r="E104">
+        <v>111.95</v>
+      </c>
+      <c r="F104">
+        <v>112.7</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>113.36666666666667</v>
+      </c>
+      <c r="H104">
+        <v>114.79441450964126</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>121.02614216337712</v>
+      </c>
+      <c r="K104">
+        <v>116.13672962810429</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>10.120411231902368</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>119.40911915161887</v>
+      </c>
+      <c r="W104">
+        <v>123.22252096008684</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-3.8134018084679724</v>
+      </c>
+      <c r="Y104">
+        <v>-2.6472668263045174</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
